--- a/code/BlueHr/BlueHrWeb/Template/排班导入文件模板.xlsx
+++ b/code/BlueHr/BlueHrWeb/Template/排班导入文件模板.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
